--- a/biology/Microbiologie/Thécamibien/Thécamibien.xlsx
+++ b/biology/Microbiologie/Thécamibien/Thécamibien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9camibien</t>
+          <t>Thécamibien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les thécamibiens ou amibes testacées ou  amibes à thèques (parfois thécamœbiens) forment un groupe polyphylétique d'amibes caractérisées par la présence d'une sorte de « coquille » que l'on nomme une « thèque », ou encore un « test ».
 Ce groupe comporte trois groupes principaux: les Arcellinida (embranchement Amoebozoa), les Euglyphida (embranchement Cercozoa) et un troisième groupe, les Amphitremida (Stramenopiles).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9camibien</t>
+          <t>Thécamibien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des organismes cosmopolites, constituant une part importante des écosystèmes terrestres et des eaux douces. Ils sont entourés d'une coque chitineuse ou silicieuse. En d'autres mots elle peut être d'origine minérale ou protéique. Cette coque présente une ouverture par laquelle passe le cytoplasme qui forme les pseudopodes. 
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9camibien</t>
+          <t>Thécamibien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Bioindication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les thécamibiens font partie des indicateurs de suivi de la qualité des milieux naturels, dans les sédiments et les tourbières notamment, où les thèques se conservent après la mort des organismes, permettant des études rétrospectives et des reconstitutions de paléoenvironnements.
 Une thèse a porté sur leur utilisation possible comme marqueurs le suivi des modifications climatique et pour la reconstitution des environnements et des climats passés. Cette thèse a comparé des communautés contemporaines de thécamoebiens sur l'écotone eau-sédiment dans 3 lacs français caractérisés par des niveaux trophiques différents (lacs Bonlieu et Clairvaux dans le Jura, et lac Pavin en Auvergne) et à des profondeurs variables. Elle a aussi porté sur le paléoenvironnement des assemblages fossiles de thécamoebiens dans une « séquence sédimentaire lacustre datant de la dernière grande transition climatique entre le Tardiglaciaire et l’Holocène (15,7-11ka cal BP) ».
-Ce travail a montré une zonation marquée des thécamoebiens selon le type de lacs et la profondeur, et l'influence directe et/ou indirecte de paramètres environnementaux sur ces communautés, via les ressources nutritives (quantité et diversité), l'oxygène dissous, la température (thermocline et les variations de températures (reflétant les changements du climat) et selon les contextes physico-chimiques et environnementaux (ceinture végétale, nature du sédiment…)[1]. 
+Ce travail a montré une zonation marquée des thécamoebiens selon le type de lacs et la profondeur, et l'influence directe et/ou indirecte de paramètres environnementaux sur ces communautés, via les ressources nutritives (quantité et diversité), l'oxygène dissous, la température (thermocline et les variations de températures (reflétant les changements du climat) et selon les contextes physico-chimiques et environnementaux (ceinture végétale, nature du sédiment…). 
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9camibien</t>
+          <t>Thécamibien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles de thécamœbiens sont considérés comme les plus anciens fossiles eucaryotes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles de thécamœbiens sont considérés comme les plus anciens fossiles eucaryotes.
 </t>
         </is>
       </c>
